--- a/Excel/AirServiceChargeRule.xlsx
+++ b/Excel/AirServiceChargeRule.xlsx
@@ -105,9 +105,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Agent Cancel Charges - Comp1</t>
   </si>
   <si>
@@ -135,10 +132,13 @@
     <t>Nov</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>TIGER EXP Air</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>EM</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>21</v>
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
@@ -641,55 +641,55 @@
         <v>27</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>27</v>
